--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf1</t>
   </si>
   <si>
     <t>Fgfr4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.190640666666667</v>
+      </c>
+      <c r="H2">
+        <v>3.571922</v>
+      </c>
+      <c r="I2">
+        <v>0.1136540143525372</v>
+      </c>
+      <c r="J2">
+        <v>0.1136540143525372</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>1.161357666666667</v>
-      </c>
-      <c r="H2">
-        <v>3.484073</v>
-      </c>
-      <c r="I2">
-        <v>0.1270850363824361</v>
-      </c>
-      <c r="J2">
-        <v>0.1270850363824361</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N2">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O2">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P2">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q2">
-        <v>0.06017110206766667</v>
+        <v>0.4357677370362222</v>
       </c>
       <c r="R2">
-        <v>0.541539918609</v>
+        <v>3.921909633326</v>
       </c>
       <c r="S2">
-        <v>0.0001308257949240987</v>
+        <v>0.0007644427788513947</v>
       </c>
       <c r="T2">
-        <v>0.0001308257949240987</v>
+        <v>0.0007644427788513948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H3">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I3">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J3">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.273934</v>
       </c>
       <c r="O3">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P3">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q3">
-        <v>0.1060451170202222</v>
+        <v>0.1087189867942222</v>
       </c>
       <c r="R3">
-        <v>0.9544060531820001</v>
+        <v>0.9784708811480001</v>
       </c>
       <c r="S3">
-        <v>0.0002305664389591533</v>
+        <v>0.0001907195905418189</v>
       </c>
       <c r="T3">
-        <v>0.0002305664389591533</v>
+        <v>0.0001907195905418189</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H4">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I4">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J4">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N4">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O4">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P4">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q4">
-        <v>58.23518503472034</v>
+        <v>64.17206359707133</v>
       </c>
       <c r="R4">
-        <v>524.1166653124831</v>
+        <v>577.5485723736421</v>
       </c>
       <c r="S4">
-        <v>0.1266166666874664</v>
+        <v>0.1125734340830652</v>
       </c>
       <c r="T4">
-        <v>0.1266166666874664</v>
+        <v>0.1125734340830652</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.190640666666667</v>
+      </c>
+      <c r="H5">
+        <v>3.571922</v>
+      </c>
+      <c r="I5">
+        <v>0.1136540143525372</v>
+      </c>
+      <c r="J5">
+        <v>0.1136540143525372</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>1.161357666666667</v>
-      </c>
-      <c r="H5">
-        <v>3.484073</v>
-      </c>
-      <c r="I5">
-        <v>0.1270850363824361</v>
-      </c>
-      <c r="J5">
-        <v>0.1270850363824361</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.04236633333333333</v>
+        <v>0.06004666666666667</v>
       </c>
       <c r="N5">
-        <v>0.127099</v>
+        <v>0.18014</v>
       </c>
       <c r="O5">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="P5">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="Q5">
-        <v>0.04920246602522222</v>
+        <v>0.07149400323111112</v>
       </c>
       <c r="R5">
-        <v>0.442822194227</v>
+        <v>0.6434460290800001</v>
       </c>
       <c r="S5">
-        <v>0.0001069774610865005</v>
+        <v>0.000125417900078863</v>
       </c>
       <c r="T5">
-        <v>0.0001069774610865005</v>
+        <v>0.000125417900078863</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,40 +791,40 @@
         <v>15.504521</v>
       </c>
       <c r="I6">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J6">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N6">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O6">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P6">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q6">
-        <v>0.2677682458436667</v>
+        <v>1.891522275682556</v>
       </c>
       <c r="R6">
-        <v>2.409914212593</v>
+        <v>17.023700481143</v>
       </c>
       <c r="S6">
-        <v>0.0005821896627144099</v>
+        <v>0.003318190911783573</v>
       </c>
       <c r="T6">
-        <v>0.0005821896627144099</v>
+        <v>0.003318190911783574</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>15.504521</v>
       </c>
       <c r="I7">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J7">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.273934</v>
       </c>
       <c r="O7">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P7">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q7">
         <v>0.4719128284015556</v>
@@ -883,10 +883,10 @@
         <v>4.247215455614</v>
       </c>
       <c r="S7">
-        <v>0.001026046869493667</v>
+        <v>0.0008278500753003658</v>
       </c>
       <c r="T7">
-        <v>0.001026046869493667</v>
+        <v>0.0008278500753003658</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>15.504521</v>
       </c>
       <c r="I8">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J8">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N8">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O8">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P8">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q8">
-        <v>259.1531949272324</v>
+        <v>278.5495057434424</v>
       </c>
       <c r="R8">
-        <v>2332.378754345091</v>
+        <v>2506.945551690981</v>
       </c>
       <c r="S8">
-        <v>0.5634585634703471</v>
+        <v>0.4886436973660118</v>
       </c>
       <c r="T8">
-        <v>0.5634585634703471</v>
+        <v>0.4886436973660119</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>15.504521</v>
       </c>
       <c r="I9">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J9">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04236633333333333</v>
+        <v>0.06004666666666667</v>
       </c>
       <c r="N9">
-        <v>0.127099</v>
+        <v>0.18014</v>
       </c>
       <c r="O9">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="P9">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="Q9">
-        <v>0.2189565682865556</v>
+        <v>0.3103316014377778</v>
       </c>
       <c r="R9">
-        <v>1.970609114579</v>
+        <v>2.792984412940001</v>
       </c>
       <c r="S9">
-        <v>0.0004760618655069309</v>
+        <v>0.000544397236431432</v>
       </c>
       <c r="T9">
-        <v>0.0004760618655069308</v>
+        <v>0.0005443972364314321</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.808898333333333</v>
+        <v>4.037194</v>
       </c>
       <c r="H10">
-        <v>8.426695</v>
+        <v>12.111582</v>
       </c>
       <c r="I10">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="J10">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N10">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O10">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P10">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q10">
-        <v>0.1455318315483333</v>
+        <v>1.477590126567333</v>
       </c>
       <c r="R10">
-        <v>1.309786483935</v>
+        <v>13.298311139106</v>
       </c>
       <c r="S10">
-        <v>0.0003164196249498585</v>
+        <v>0.002592053074049919</v>
       </c>
       <c r="T10">
-        <v>0.0003164196249498585</v>
+        <v>0.002592053074049919</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.808898333333333</v>
+        <v>4.037194</v>
       </c>
       <c r="H11">
-        <v>8.426695</v>
+        <v>12.111582</v>
       </c>
       <c r="I11">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="J11">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.273934</v>
       </c>
       <c r="O11">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P11">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q11">
-        <v>0.2564842520144445</v>
+        <v>0.3686415670653334</v>
       </c>
       <c r="R11">
-        <v>2.30835826813</v>
+        <v>3.317774103588</v>
       </c>
       <c r="S11">
-        <v>0.0005576556686225869</v>
+        <v>0.0006466871224661861</v>
       </c>
       <c r="T11">
-        <v>0.0005576556686225869</v>
+        <v>0.0006466871224661861</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.808898333333333</v>
+        <v>4.037194</v>
       </c>
       <c r="H12">
-        <v>8.426695</v>
+        <v>12.111582</v>
       </c>
       <c r="I12">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="J12">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N12">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O12">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P12">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q12">
-        <v>140.8495581338717</v>
+        <v>217.592996253878</v>
       </c>
       <c r="R12">
-        <v>1267.646023204845</v>
+        <v>1958.336966284902</v>
       </c>
       <c r="S12">
-        <v>0.3062392872055033</v>
+        <v>0.3817111286076904</v>
       </c>
       <c r="T12">
-        <v>0.3062392872055033</v>
+        <v>0.3817111286076905</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.037194</v>
+      </c>
+      <c r="H13">
+        <v>12.111582</v>
+      </c>
+      <c r="I13">
+        <v>0.3853751326204581</v>
+      </c>
+      <c r="J13">
+        <v>0.3853751326204581</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.06004666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.18014</v>
+      </c>
+      <c r="O13">
+        <v>0.001103506117169219</v>
+      </c>
+      <c r="P13">
+        <v>0.001103506117169219</v>
+      </c>
+      <c r="Q13">
+        <v>0.2424200423866667</v>
+      </c>
+      <c r="R13">
+        <v>2.18178038148</v>
+      </c>
+      <c r="S13">
+        <v>0.0004252638162515744</v>
+      </c>
+      <c r="T13">
+        <v>0.0004252638162515744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.808898333333333</v>
-      </c>
-      <c r="H13">
-        <v>8.426695</v>
-      </c>
-      <c r="I13">
-        <v>0.3073721017495019</v>
-      </c>
-      <c r="J13">
-        <v>0.3073721017495019</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M13">
-        <v>0.04236633333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.127099</v>
-      </c>
-      <c r="O13">
-        <v>0.0008417785770196733</v>
-      </c>
-      <c r="P13">
-        <v>0.0008417785770196732</v>
-      </c>
-      <c r="Q13">
-        <v>0.1190027230894444</v>
-      </c>
-      <c r="R13">
-        <v>1.071024507805</v>
-      </c>
-      <c r="S13">
-        <v>0.0002587392504262419</v>
-      </c>
-      <c r="T13">
-        <v>0.0002587392504262419</v>
+      <c r="G14">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.240007</v>
+      </c>
+      <c r="I14">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J14">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3659943333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.097983</v>
+      </c>
+      <c r="O14">
+        <v>0.006726051721149161</v>
+      </c>
+      <c r="P14">
+        <v>0.006726051721149162</v>
+      </c>
+      <c r="Q14">
+        <v>0.02928040065344444</v>
+      </c>
+      <c r="R14">
+        <v>0.263523605881</v>
+      </c>
+      <c r="S14">
+        <v>5.136495646427516E-05</v>
+      </c>
+      <c r="T14">
+        <v>5.136495646427517E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.240007</v>
+      </c>
+      <c r="I15">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J15">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.09131133333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.273934</v>
+      </c>
+      <c r="O15">
+        <v>0.001678071748088335</v>
+      </c>
+      <c r="P15">
+        <v>0.001678071748088335</v>
+      </c>
+      <c r="Q15">
+        <v>0.007305119726444444</v>
+      </c>
+      <c r="R15">
+        <v>0.06574607753800001</v>
+      </c>
+      <c r="S15">
+        <v>1.281495977996449E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.28149597799645E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.240007</v>
+      </c>
+      <c r="I16">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J16">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>53.897087</v>
+      </c>
+      <c r="N16">
+        <v>161.691261</v>
+      </c>
+      <c r="O16">
+        <v>0.9904923704135933</v>
+      </c>
+      <c r="P16">
+        <v>0.9904923704135934</v>
+      </c>
+      <c r="Q16">
+        <v>4.311892719869666</v>
+      </c>
+      <c r="R16">
+        <v>38.807034478827</v>
+      </c>
+      <c r="S16">
+        <v>0.007564110356825882</v>
+      </c>
+      <c r="T16">
+        <v>0.007564110356825884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.240007</v>
+      </c>
+      <c r="I17">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J17">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.06004666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.18014</v>
+      </c>
+      <c r="O17">
+        <v>0.001103506117169219</v>
+      </c>
+      <c r="P17">
+        <v>0.001103506117169219</v>
+      </c>
+      <c r="Q17">
+        <v>0.004803873442222223</v>
+      </c>
+      <c r="R17">
+        <v>0.04323486098</v>
+      </c>
+      <c r="S17">
+        <v>8.427164407349228E-06</v>
+      </c>
+      <c r="T17">
+        <v>8.427164407349231E-06</v>
       </c>
     </row>
   </sheetData>
